--- a/biology/Médecine/Centre_national_pour_la_médecine_complémentaire_et_intégrative/Centre_national_pour_la_médecine_complémentaire_et_intégrative.xlsx
+++ b/biology/Médecine/Centre_national_pour_la_médecine_complémentaire_et_intégrative/Centre_national_pour_la_médecine_complémentaire_et_intégrative.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_national_pour_la_m%C3%A9decine_compl%C3%A9mentaire_et_int%C3%A9grative</t>
+          <t>Centre_national_pour_la_médecine_complémentaire_et_intégrative</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Centre national de la médecine complémentaire et intégrative (NCCIH pour National Center for Complementary and Integrative Health) est une agence du gouvernement des États-Unis qui étudie la médecine complémentaire et intégrative. *
-Il a été initialement créé en tant que Bureau de médecine alternative (OAM) et a été renommé Centre national de médecine complémentaire et alternative (NCCAM pour National Center for Complementary and Alternative Medicine) avant de recevoir son nom actuel[1]. Le NCCIH est l'un des 27 instituts et centres qui composent les National Institutes of Health (NIH) au sein du ministère de la Santé et des Services sociaux du gouvernement fédéral des États-Unis.
-Sa mission déclarée est : « de définir, par le biais d'une enquête scientifique rigoureuse, l'utilité et la sécurité des interventions de médecine complémentaire et parallèle et leur rôle dans l'amélioration de la santé et des soins de santé »[2].
+Il a été initialement créé en tant que Bureau de médecine alternative (OAM) et a été renommé Centre national de médecine complémentaire et alternative (NCCAM pour National Center for Complementary and Alternative Medicine) avant de recevoir son nom actuel. Le NCCIH est l'un des 27 instituts et centres qui composent les National Institutes of Health (NIH) au sein du ministère de la Santé et des Services sociaux du gouvernement fédéral des États-Unis.
+Sa mission déclarée est : « de définir, par le biais d'une enquête scientifique rigoureuse, l'utilité et la sécurité des interventions de médecine complémentaire et parallèle et leur rôle dans l'amélioration de la santé et des soins de santé ».
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_national_pour_la_m%C3%A9decine_compl%C3%A9mentaire_et_int%C3%A9grative</t>
+          <t>Centre_national_pour_la_médecine_complémentaire_et_intégrative</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,16 +528,56 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nom et énoncé de mission
-Le NCCIH a été créé en octobre 1991 sous le nom de Office of Alternative Medicine (OAM), qui a été rétabli en tant que NCCAM en octobre 1998[3] et ensuite en tant que NCCIH en décembre 2014[1]. Le changement du nom en NCCIH a été présenté comme une tentative du centre pour atténuer les critiques, par exemple pour éviter le terme alternative et pour se distancer des études financées par des firmes et dont le mérite est douteux[4],[5].
-Dans sa déclaration de mission, le NCCAM a déclaré qu'il « se consacrait à l'exploration de pratiques de guérison complémentaires et alternatives dans le contexte d'une science rigoureuse, à la formation de chercheurs en médecine complémentaire et alternative et à la diffusion d'informations faisant autorité à destination du public et des professionnels »[6]. En tant que NCCIH, l'énoncé de mission "consiste à définir, au moyen d'une enquête scientifique rigoureuse, l'utilité et la sécurité des interventions en médecine complémentaire et parallèle et leur rôle dans l'amélioration de la santé et des soins de santé"[2].
-En tant que bureau de médecine alternative (OAM)
-Joseph J. Jacobs a été nommé premier directeur de l'OAM en 1992. Initialement, l'insistance de Jacobs sur une méthodologie scientifique rigoureuse a créé des frictions avec les clients du bureau, tels que le sénateur américain Tom Harkin. Le sénateur Harkin, convaincu que ses allergies étaient guéries en prenant des pilules de pollen d'abeille, a critiqué les « règles inflexibles des essais cliniques randomisés », déclarant : « Il n'est pas nécessaire que la communauté scientifique comprenne le processus avant que le public américain puisse en bénéficier de ces thérapies »[7]. Le bureau de Harkin aurait fait pression sur l'OAM pour qu'il finance des études sur des « théories relatives aux animaux de compagnie », notamment le pollen d'abeille et les antinéoplastons de la clinique Burzynski. Face à la résistance croissante à l’utilisation de la méthodologie scientifique dans l’étude des médecines alternatives, Barrie Cassileth, membre du conseil d’administration de l’OAM, a publiquement critiqué le bureau, déclarant : « le bureau est étonnant ... C'est le seul endroit où les opinions sont comptées comme égales aux données »[7]. Enfin, en 1994, Harkin est apparu à la télévision avec des patients atteints de cancer, accusant Jacobs d'avoir bloqué leur accès aux antinéoplastons, ce qui a conduit Jacobs à démissionner de l'OAM, frustré. Dans un entretien avec Science, M. Jacobs a « critiqué les hommes politiques - en particulier le sénateur Tom Harkin ... pour avoir exercé des pressions sur son bureau, encouragé certaines thérapies, et, dit-il, tenté de mettre fin à la science objective »[8].
-Avec le budget croissant de l'OAM dans les années 90, le bureau a été de plus en plus critiqué pour son manque apparent d'étude scientifique rigoureuse concernant les approches alternatives en faveur d'un stimulant non critique. Paul Berg, lauréat du prix Nobel de chimie, a écrit au Sénat : « Le charlatanisme s'attaquera toujours aux personnes crédules et mal informées, mais nous ne devrions pas le couvrir du NIH », et a qualifié le bureau de « gêne pour les scientifiques sérieux »[9],[10]. Allen Bromley, alors président de l'American Physical Society, écrivit de la même manière au Congrès que l'OAM était «devenue un défenseur aveugle de la médecine non conventionnelle, violant clairement les lois fondamentales de la physique et ressemblant plus à de  la sorcellerie"[7],[9],[10]. Un auteur d'opinion du New York Times a qualifié l'OAM de « folie de Tom Harkin »[10].
-En 1995, Wayne Jonas, promoteur de l'homéopathie et allié politique du sénateur Harkin, est devenu directeur de l'OAM et a exercé ce rôle jusqu'en 1999[11]. En 1997, le budget du NCCAM est passé de 12 millions de dollars à 20 millions de dollars par an[9]. Aux États-Unis, l'utilisation de médecines douces a augmenté de 25% entre 1990 et 1997, entraînant une augmentation correspondante des dépenses de 50 %[12]. L'OAM a suscité de plus en plus de critiques de la part de membres éminents de la communauté scientifique dans des lettres adressées au Comité des crédits du Sénat lors de la discussion sur le renouvellement du financement de l'OAM[13]. En 1998, le président de l’association médicale de Caroline du Nord a appelé publiquement à la fermeture de l’OAM[14].
-En 1998, Harold Varmus, directeur des NIH et lauréat du prix Nobel, est entré en conflit avec le sénateur Harkin en demandant aux NIH de renforcer le contrôle de la recherche en médecine alternative[15]. Le directeur du NIH a placé l'OAM sous un contrôle scientifique plus strict du NIH[9],[15]. Le sénateur Harkin a réagi en transformant l’OAM en un centre indépendant des NIH, un peu avant d’être son propre institut, et renommé en National Center for Complementary and Alternative Medicine (NCCAM). Le NCCAM avait pour mandat de promouvoir une approche plus rigoureuse et scientifique de l’étude de la médecine alternative, de la formation à la recherche et au développement de carrière, de la sensibilisation et de l’intégration.
-Stephen Strauss a été directeur du NCCAM de 1999 à 2006. Il a tenté d’apporter plus de rigueur scientifique à l’organisation[16]. En 1999, le budget du NCCAM est passé de 20 millions de dollars à 50 millions de dollars[14],[15]. Le Congrès des États-Unis a approuvé les crédits sans opposition. En 2000, le budget a été porté à environ 68 millions de dollars, à 90 millions de dollars en 2001, à 104 millions de dollars en 2002 et à 113 millions de dollars en 2003[14].
-En tant que NCCAM</t>
+          <t>Nom et énoncé de mission</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le NCCIH a été créé en octobre 1991 sous le nom de Office of Alternative Medicine (OAM), qui a été rétabli en tant que NCCAM en octobre 1998 et ensuite en tant que NCCIH en décembre 2014. Le changement du nom en NCCIH a été présenté comme une tentative du centre pour atténuer les critiques, par exemple pour éviter le terme alternative et pour se distancer des études financées par des firmes et dont le mérite est douteux,.
+Dans sa déclaration de mission, le NCCAM a déclaré qu'il « se consacrait à l'exploration de pratiques de guérison complémentaires et alternatives dans le contexte d'une science rigoureuse, à la formation de chercheurs en médecine complémentaire et alternative et à la diffusion d'informations faisant autorité à destination du public et des professionnels ». En tant que NCCIH, l'énoncé de mission "consiste à définir, au moyen d'une enquête scientifique rigoureuse, l'utilité et la sécurité des interventions en médecine complémentaire et parallèle et leur rôle dans l'amélioration de la santé et des soins de santé".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Centre_national_pour_la_médecine_complémentaire_et_intégrative</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_national_pour_la_m%C3%A9decine_compl%C3%A9mentaire_et_int%C3%A9grative</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Organisation et historique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>En tant que bureau de médecine alternative (OAM)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph J. Jacobs a été nommé premier directeur de l'OAM en 1992. Initialement, l'insistance de Jacobs sur une méthodologie scientifique rigoureuse a créé des frictions avec les clients du bureau, tels que le sénateur américain Tom Harkin. Le sénateur Harkin, convaincu que ses allergies étaient guéries en prenant des pilules de pollen d'abeille, a critiqué les « règles inflexibles des essais cliniques randomisés », déclarant : « Il n'est pas nécessaire que la communauté scientifique comprenne le processus avant que le public américain puisse en bénéficier de ces thérapies ». Le bureau de Harkin aurait fait pression sur l'OAM pour qu'il finance des études sur des « théories relatives aux animaux de compagnie », notamment le pollen d'abeille et les antinéoplastons de la clinique Burzynski. Face à la résistance croissante à l’utilisation de la méthodologie scientifique dans l’étude des médecines alternatives, Barrie Cassileth, membre du conseil d’administration de l’OAM, a publiquement critiqué le bureau, déclarant : « le bureau est étonnant ... C'est le seul endroit où les opinions sont comptées comme égales aux données ». Enfin, en 1994, Harkin est apparu à la télévision avec des patients atteints de cancer, accusant Jacobs d'avoir bloqué leur accès aux antinéoplastons, ce qui a conduit Jacobs à démissionner de l'OAM, frustré. Dans un entretien avec Science, M. Jacobs a « critiqué les hommes politiques - en particulier le sénateur Tom Harkin ... pour avoir exercé des pressions sur son bureau, encouragé certaines thérapies, et, dit-il, tenté de mettre fin à la science objective ».
+Avec le budget croissant de l'OAM dans les années 90, le bureau a été de plus en plus critiqué pour son manque apparent d'étude scientifique rigoureuse concernant les approches alternatives en faveur d'un stimulant non critique. Paul Berg, lauréat du prix Nobel de chimie, a écrit au Sénat : « Le charlatanisme s'attaquera toujours aux personnes crédules et mal informées, mais nous ne devrions pas le couvrir du NIH », et a qualifié le bureau de « gêne pour les scientifiques sérieux »,. Allen Bromley, alors président de l'American Physical Society, écrivit de la même manière au Congrès que l'OAM était «devenue un défenseur aveugle de la médecine non conventionnelle, violant clairement les lois fondamentales de la physique et ressemblant plus à de  la sorcellerie". Un auteur d'opinion du New York Times a qualifié l'OAM de « folie de Tom Harkin ».
+En 1995, Wayne Jonas, promoteur de l'homéopathie et allié politique du sénateur Harkin, est devenu directeur de l'OAM et a exercé ce rôle jusqu'en 1999. En 1997, le budget du NCCAM est passé de 12 millions de dollars à 20 millions de dollars par an. Aux États-Unis, l'utilisation de médecines douces a augmenté de 25% entre 1990 et 1997, entraînant une augmentation correspondante des dépenses de 50 %. L'OAM a suscité de plus en plus de critiques de la part de membres éminents de la communauté scientifique dans des lettres adressées au Comité des crédits du Sénat lors de la discussion sur le renouvellement du financement de l'OAM. En 1998, le président de l’association médicale de Caroline du Nord a appelé publiquement à la fermeture de l’OAM.
+En 1998, Harold Varmus, directeur des NIH et lauréat du prix Nobel, est entré en conflit avec le sénateur Harkin en demandant aux NIH de renforcer le contrôle de la recherche en médecine alternative. Le directeur du NIH a placé l'OAM sous un contrôle scientifique plus strict du NIH,. Le sénateur Harkin a réagi en transformant l’OAM en un centre indépendant des NIH, un peu avant d’être son propre institut, et renommé en National Center for Complementary and Alternative Medicine (NCCAM). Le NCCAM avait pour mandat de promouvoir une approche plus rigoureuse et scientifique de l’étude de la médecine alternative, de la formation à la recherche et au développement de carrière, de la sensibilisation et de l’intégration.
+Stephen Strauss a été directeur du NCCAM de 1999 à 2006. Il a tenté d’apporter plus de rigueur scientifique à l’organisation. En 1999, le budget du NCCAM est passé de 20 millions de dollars à 50 millions de dollars,. Le Congrès des États-Unis a approuvé les crédits sans opposition. En 2000, le budget a été porté à environ 68 millions de dollars, à 90 millions de dollars en 2001, à 104 millions de dollars en 2002 et à 113 millions de dollars en 2003.
+</t>
         </is>
       </c>
     </row>
